--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -6,15 +6,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet 3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet 4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet 5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet 6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet 7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet 8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sheet 9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ashiya" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="himeji" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="kobe" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="kyoto" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="nishinomiya" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="okamoto" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="osaka" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rokko" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sanda" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
